--- a/Lists/ideac.xlsx
+++ b/Lists/ideac.xlsx
@@ -817,19 +817,19 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color theme="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color theme="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,25 +1220,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>126.18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <f t="shared" ref="G1:G8" si="0">F1+E1</f>
         <v>4</v>
       </c>
@@ -2608,31 +2608,30 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>243.25</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="D59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>4</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lists/ideac.xlsx
+++ b/Lists/ideac.xlsx
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2207,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="2">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>0</v>
@@ -2633,5 +2633,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>